--- a/bin/Debug/Tabela Binária/Titulo.xlsx
+++ b/bin/Debug/Tabela Binária/Titulo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Tabela Binária\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DCA091-C5F6-4590-8A8E-D40A3C34DF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46AFAE-DAD7-4459-95A7-3B9265337B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{C5713032-E93F-4EE0-AFD7-5475B37D6133}"/>
+    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{78A6E15B-442C-4E1D-9134-9B379A15B86D}"/>
   </bookViews>
   <sheets>
     <sheet name="Binária" sheetId="1" r:id="rId1"/>
@@ -34,57 +34,372 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-14B_CR14</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D9-14B_CR14</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D10-16B_CR16</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D8-14B_CR14</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D9-16B_CR16</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D8-16B_CR16</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D10-15B_CR15</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D10-17B_CR17</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D9-15B_CR15</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D9-17B_CR17</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D8-15B_CR15</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D8-17B_CR17</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D10-18B_CR18</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D9-18B_CR18</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_D8-18B_CR18</t>
-  </si>
-  <si>
-    <t>R66_Tmaybe_CR8</t>
+    <t>R66_T33_D10-20B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-20B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-20B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-20B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-20B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-20B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-20B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-20B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-20B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-20B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-20B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-20B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-30B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-30B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-20B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-20B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-20B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-20B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-30B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-30B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-20B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-20B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-20B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-20B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-30B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-30B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-30B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-30B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-20B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-20B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-20B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-20B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-20B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-20B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-20B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-20B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-30B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-30B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-30B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-30B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-20B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-20B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-30B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-30B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-30B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-30B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-30B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-30B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_CR8</t>
   </si>
 </sst>
 </file>
@@ -435,8 +750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3A6914-AAB9-45CF-91E4-4244E5A49F90}">
-  <dimension ref="A1:L62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BFB0A1-37F1-4034-A023-AA5160C6C220}">
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -567,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -582,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -617,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -643,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -678,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -699,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -710,19 +1025,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -748,10 +1063,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -760,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -769,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +1101,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -795,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -816,24 +1131,24 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -848,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -862,16 +1177,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -889,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -900,16 +1215,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -927,18 +1242,18 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -962,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -976,16 +1291,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -997,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1014,7 +1329,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1023,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1044,24 +1359,24 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1082,15 +1397,15 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1117,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1128,7 +1443,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1166,7 +1481,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1190,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1204,7 +1519,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1225,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1242,7 +1557,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1251,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1269,30 +1584,30 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1310,24 +1625,24 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1345,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1356,16 +1671,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1394,7 +1709,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1432,16 +1747,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1459,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1470,7 +1785,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1497,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1508,16 +1823,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1535,30 +1850,30 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1579,21 +1894,21 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1622,19 +1937,19 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1646,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1660,10 +1975,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1672,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1684,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1698,7 +2013,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1731,12 +2046,12 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1769,12 +2084,12 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1798,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1812,13 +2127,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1833,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1845,12 +2160,12 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1859,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1880,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -1888,7 +2203,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1912,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1921,12 +2236,12 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1935,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1950,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -1964,7 +2279,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1985,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2002,7 +2317,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2011,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2029,18 +2344,18 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2049,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2064,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2078,19 +2393,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2111,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2154,19 +2469,19 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2181,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2192,16 +2507,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2219,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2230,19 +2545,19 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2263,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2301,12 +2616,12 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2315,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2333,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2344,16 +2659,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2382,16 +2697,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2409,27 +2724,27 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2444,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2453,12 +2768,12 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2467,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2491,12 +2806,12 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2520,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -2534,16 +2849,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2558,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2572,16 +2887,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2593,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2610,19 +2925,19 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2640,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -2648,16 +2963,16 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2675,27 +2990,27 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2716,15 +3031,15 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2751,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -2762,16 +3077,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2792,9 +3107,2289 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
         <v>0</v>
       </c>
     </row>

--- a/bin/Debug/Tabela Binária/Titulo.xlsx
+++ b/bin/Debug/Tabela Binária/Titulo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Tabela Binária\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46AFAE-DAD7-4459-95A7-3B9265337B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0C58E1-6550-44F6-93D8-E8503E6867E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{78A6E15B-442C-4E1D-9134-9B379A15B86D}"/>
+    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{AA873C3C-3DC9-44C0-9D10-69B88502B6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Binária" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BFB0A1-37F1-4034-A023-AA5160C6C220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD51161-376D-41A2-8513-4FD7EE98088F}">
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
